--- a/messages.xlsx
+++ b/messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtd7921\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFBE6C8-0CB8-45EB-97D1-72EDAA57CA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC03B085-5F00-4564-882F-0BFF6382EF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="3105" windowWidth="25725" windowHeight="17235" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -114,9 +114,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>what is 1 plus 1??? a) 2 b) 3 c) 10 d) 99</t>
-  </si>
-  <si>
     <t>https://blueseatblogs.com/wp-content/uploads/2018/07/consciousness-709143-400x300.jpg</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>Congrats! You finished!</t>
   </si>
   <si>
-    <t>110, 201, 301, 400, 500</t>
-  </si>
-  <si>
     <t>Low Data Version - Congrats! You finished!</t>
   </si>
   <si>
@@ -313,6 +307,9 @@
   </si>
   <si>
     <t>Thank you for consenting! We automatically collect your data. If you would like to opt out, you can type "no data" at any point. If you would like to opt in again, you can type "yes data" at any point.</t>
+  </si>
+  <si>
+    <t>what is 3 minus 1??? a) 2 b) 3 c) 10 d) 99</t>
   </si>
 </sst>
 </file>
@@ -706,21 +703,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA6A2BB-9C23-4233-A3B0-E435AB329052}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -758,7 +755,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -776,7 +773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -801,7 +798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -826,18 +823,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="3">
         <v>101</v>
@@ -846,27 +843,27 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E6" s="3">
         <v>102</v>
@@ -875,24 +872,24 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>104</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D7" s="3">
         <v>105</v>
@@ -904,23 +901,23 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3">
         <v>104</v>
@@ -929,27 +926,27 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E9" s="3">
         <v>105</v>
@@ -958,25 +955,25 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5">
         <v>106</v>
@@ -985,25 +982,25 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3">
         <v>107</v>
@@ -1012,25 +1009,25 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="3">
         <v>108</v>
@@ -1039,24 +1036,24 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -1068,14 +1065,14 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>200</v>
       </c>
@@ -1100,7 +1097,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>201</v>
       </c>
@@ -1124,7 +1121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>300</v>
       </c>
@@ -1148,7 +1145,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>301</v>
       </c>
@@ -1166,13 +1163,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>400</v>
       </c>
@@ -1196,7 +1193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>500</v>
       </c>
@@ -1214,18 +1211,18 @@
         <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>-1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
@@ -1238,19 +1235,19 @@
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
@@ -1263,19 +1260,19 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1100</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
@@ -1288,19 +1285,19 @@
         <v>2</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1200</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
@@ -1313,19 +1310,19 @@
         <v>2</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>1300</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
@@ -1338,19 +1335,19 @@
         <v>2</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>1400</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5">
@@ -1363,19 +1360,19 @@
         <v>2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>1500</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
@@ -1388,19 +1385,19 @@
         <v>2</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>911</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
@@ -1413,42 +1410,42 @@
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>9696</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>77</v>
+      <c r="E28" s="5">
+        <v>1</v>
       </c>
       <c r="F28" s="5">
         <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>1738</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" s="5">
         <v>4200</v>
@@ -1460,18 +1457,18 @@
         <v>0</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>4201</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -1483,18 +1480,18 @@
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>950</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" s="5">
         <v>4200</v>
@@ -1506,18 +1503,18 @@
         <v>0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4200</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>4200</v>
@@ -1529,18 +1526,18 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D33">
         <v>4200</v>
@@ -1552,18 +1549,18 @@
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D34">
         <v>4200</v>
@@ -1575,18 +1572,18 @@
         <v>0</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>4</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>4200</v>
@@ -1598,18 +1595,18 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>5</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>4200</v>
@@ -1621,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s">
         <v>28</v>

--- a/messages.xlsx
+++ b/messages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtd7921\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC03B085-5F00-4564-882F-0BFF6382EF93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9412939-C976-4420-9BF1-C86C1058A69A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
+    <workbookView xWindow="6180" yWindow="3105" windowWidth="25725" windowHeight="17235" xr2:uid="{6E4F2BC1-98AF-4436-ABD2-BA309168EB1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>what is 3 minus 1??? a) 2 b) 3 c) 10 d) 99</t>
+  </si>
+  <si>
+    <t>you are inactive</t>
+  </si>
+  <si>
+    <t>you are inactive low data</t>
   </si>
 </sst>
 </file>
@@ -701,23 +707,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA6A2BB-9C23-4233-A3B0-E435AB329052}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -773,7 +779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -798,7 +804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>101</v>
       </c>
@@ -823,7 +829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -852,7 +858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -881,7 +887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -908,7 +914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>105</v>
       </c>
@@ -935,7 +941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>106</v>
       </c>
@@ -964,7 +970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>107</v>
       </c>
@@ -991,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>108</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>109</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>110</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>200</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>201</v>
       </c>
@@ -1121,7 +1127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>300</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>301</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>400</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>500</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>-1</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>0</v>
       </c>
@@ -1267,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>1100</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>1200</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>1300</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>1400</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1500</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>911</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>9696</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1738</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>4201</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>950</v>
       </c>
@@ -1509,7 +1515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4200</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>3</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>4</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>5</v>
       </c>
@@ -1621,6 +1627,29 @@
         <v>86</v>
       </c>
       <c r="I36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>6000</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37">
+        <v>4200</v>
+      </c>
+      <c r="E37">
+        <v>4200</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" t="s">
         <v>28</v>
       </c>
     </row>
